--- a/컬럼정보받기.xlsx
+++ b/컬럼정보받기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\manufacture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33185DFD-59EC-4CE9-BB30-495DC6927844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E307DA7-566F-4D25-9D8F-64AB9CDA4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1440" windowWidth="19140" windowHeight="14160" xr2:uid="{2092223A-C0A0-48CC-8C7D-9DB7DC7630C1}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{2092223A-C0A0-48CC-8C7D-9DB7DC7630C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>항목별속성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,7 +149,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소</t>
+    <t>문자</t>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -570,20 +574,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,12 +613,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
@@ -634,7 +638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -645,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>26</v>
@@ -661,7 +665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -678,7 +682,7 @@
         <v>44440</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
@@ -690,7 +694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -701,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -710,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -721,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -732,7 +736,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="393" yWindow="285" count="11">
+  <dataValidations xWindow="626" yWindow="303" count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="항목별 속성을 선택해주세요." sqref="B2:B6" xr:uid="{49F58B27-B9CE-4980-A144-D386AA3E3F9B}">
       <formula1>"문자,숫자,날짜/시간,주소,분류,코드"</formula1>
     </dataValidation>
@@ -768,18 +772,18 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.375" customWidth="1"/>
+    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.3984375" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -790,7 +794,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -801,7 +805,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -821,7 +825,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -832,7 +836,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -841,7 +845,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -852,7 +856,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -861,7 +865,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -872,7 +876,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -881,7 +885,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -892,7 +896,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -901,7 +905,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -910,7 +914,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -921,7 +925,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -930,7 +934,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -939,7 +943,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -959,7 +963,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -970,7 +974,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -979,7 +983,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -988,7 +992,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
